--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16867</v>
+        <v>16869</v>
       </c>
       <c r="D110" t="n">
         <v>2631</v>
       </c>
       <c r="E110" t="n">
-        <v>25929535</v>
+        <v>25930135</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17547</v>
+        <v>17549</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38603446</v>
+        <v>38605108</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19700</v>
+        <v>19702</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56409367</v>
+        <v>56430548</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5962</v>
+        <v>5963</v>
       </c>
       <c r="D121" t="n">
         <v>1306</v>
       </c>
       <c r="E121" t="n">
-        <v>11514574</v>
+        <v>11516074</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9689</v>
+        <v>9693</v>
       </c>
       <c r="D122" t="n">
         <v>1445</v>
       </c>
       <c r="E122" t="n">
-        <v>31925215</v>
+        <v>31946051</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5669</v>
+        <v>5673</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17048488</v>
+        <v>17148182</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6068,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D138" t="n">
         <v>448</v>
       </c>
       <c r="E138" t="n">
-        <v>6576697</v>
+        <v>6585048</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3307</v>
+        <v>3317</v>
       </c>
       <c r="D139" t="n">
         <v>409</v>
       </c>
       <c r="E139" t="n">
-        <v>9065014</v>
+        <v>9227172</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50561</v>
+        <v>50565</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168363013</v>
+        <v>168372196</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284917</v>
+        <v>284920</v>
       </c>
       <c r="D168" t="n">
         <v>58121</v>
       </c>
       <c r="E168" t="n">
-        <v>1208113638</v>
+        <v>1208341610</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562558</v>
+        <v>562561</v>
       </c>
       <c r="D169" t="n">
         <v>60954</v>
       </c>
       <c r="E169" t="n">
-        <v>1284201531</v>
+        <v>1284323670</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367261</v>
+        <v>367272</v>
       </c>
       <c r="D170" t="n">
         <v>38108</v>
       </c>
       <c r="E170" t="n">
-        <v>2843912678</v>
+        <v>2844005381</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115099</v>
+        <v>115103</v>
       </c>
       <c r="D171" t="n">
         <v>20263</v>
       </c>
       <c r="E171" t="n">
-        <v>444581724</v>
+        <v>444720413</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54381</v>
+        <v>54383</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151843423</v>
+        <v>151846897</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357152</v>
+        <v>357160</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1016558942</v>
+        <v>1016615252</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125502</v>
+        <v>125508</v>
       </c>
       <c r="D175" t="n">
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>811364946</v>
+        <v>811570009</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96742</v>
+        <v>96746</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174285213</v>
+        <v>174705213</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235647</v>
+        <v>235655</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>812023970</v>
+        <v>812084503</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21931</v>
+        <v>21933</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>40055599</v>
+        <v>40056540</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19700</v>
+        <v>19703</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>66017381</v>
+        <v>66031872</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7396</v>
+        <v>7400</v>
       </c>
       <c r="D196" t="n">
         <v>946</v>
       </c>
       <c r="E196" t="n">
-        <v>20644396</v>
+        <v>20652188</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8528,13 +8528,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="D198" t="n">
         <v>788</v>
       </c>
       <c r="E198" t="n">
-        <v>5999037</v>
+        <v>5999357</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4154</v>
+        <v>4156</v>
       </c>
       <c r="D199" t="n">
         <v>848</v>
       </c>
       <c r="E199" t="n">
-        <v>9011715</v>
+        <v>9036256</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13100</v>
+        <v>13101</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32991663</v>
+        <v>32996553</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4750</v>
+        <v>4754</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11633084</v>
+        <v>11644170</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11117</v>
+        <v>11123</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44051783</v>
+        <v>44077924</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8979,13 +8979,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5361</v>
+        <v>5363</v>
       </c>
       <c r="D209" t="n">
         <v>1136</v>
       </c>
       <c r="E209" t="n">
-        <v>12205320</v>
+        <v>12210515</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9061,13 +9061,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="D211" t="n">
         <v>492</v>
       </c>
       <c r="E211" t="n">
-        <v>4378209</v>
+        <v>4380689</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3630</v>
+        <v>3633</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11065449</v>
+        <v>11097853</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9184,13 +9184,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6170</v>
+        <v>6172</v>
       </c>
       <c r="D214" t="n">
         <v>1076</v>
       </c>
       <c r="E214" t="n">
-        <v>11073323</v>
+        <v>11075372</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10291,13 +10291,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="D241" t="n">
         <v>625</v>
       </c>
       <c r="E241" t="n">
-        <v>7541099</v>
+        <v>7741099</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84973</v>
+        <v>84974</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156508758</v>
+        <v>156518758</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91331</v>
+        <v>91332</v>
       </c>
       <c r="D295" t="n">
         <v>9956</v>
       </c>
       <c r="E295" t="n">
-        <v>552907076</v>
+        <v>552911368</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103578</v>
+        <v>103579</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>303075392</v>
+        <v>303078087</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -13530,13 +13530,13 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>67239</v>
+        <v>67241</v>
       </c>
       <c r="D320" t="n">
         <v>10279</v>
       </c>
       <c r="E320" t="n">
-        <v>124549599</v>
+        <v>124554315</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81159</v>
+        <v>81161</v>
       </c>
       <c r="D322" t="n">
-        <v>9702</v>
+        <v>9703</v>
       </c>
       <c r="E322" t="n">
-        <v>254507703</v>
+        <v>254527631</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
